--- a/doc/memo/マニュアルページ対応表.xlsx
+++ b/doc/memo/マニュアルページ対応表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\htmny\source\repos\Soyokaze\doc\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF11DD2-C8FA-4B87-862E-A8B7B389637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DBDC33-C3C2-4055-87A4-76A890F86295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="132">
   <si>
     <t>画面別ページ対応表</t>
   </si>
@@ -415,28 +415,6 @@
   </si>
   <si>
     <t>通常コマンド-詳細設定</t>
-  </si>
-  <si>
-    <t>冒頭の説明</t>
-    <rPh sb="0" eb="2">
-      <t>ボウトウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">x </t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ウインドウ整列コマンドの登録編集</t>
@@ -917,11 +895,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -932,7 +908,7 @@
     <col min="5" max="5" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -941,7 +917,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -957,11 +933,8 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,11 +950,8 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -997,11 +967,8 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,11 +984,8 @@
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1035,13 +999,10 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1055,13 +1016,10 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1077,11 +1035,8 @@
       <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1097,11 +1052,8 @@
       <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1117,11 +1069,8 @@
       <c r="E10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1137,11 +1086,8 @@
       <c r="E11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1157,11 +1103,8 @@
       <c r="E12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1177,11 +1120,8 @@
       <c r="E13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1197,11 +1137,8 @@
       <c r="E14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1217,11 +1154,8 @@
       <c r="E15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1510,7 +1444,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>67</v>
       </c>
@@ -1526,11 +1460,8 @@
       <c r="E33" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>67</v>
       </c>
@@ -1545,9 +1476,6 @@
       </c>
       <c r="E34" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
